--- a/IA_CCBS_BANK_SIDE/RepaymentSchedule/RepaymentSchedule_Simulation.xlsx
+++ b/IA_CCBS_BANK_SIDE/RepaymentSchedule/RepaymentSchedule_Simulation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Deploy\IA\InterfacesGitHub\IA_CCBS_BANK_SIDE\RepaymentSchedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1503C073-892B-46D1-9AA9-3590670C4BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54D396F-765B-4C1F-8EC6-B9D4E2FC6129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CDB5EBE5-199B-4C02-A0AD-2F7510F763F7}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Response" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Request!$C$2:$I$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Request!$C$2:$I$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Response!$C$2:$F$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="180">
   <si>
     <t>Description</t>
   </si>
@@ -534,6 +534,45 @@
   <si>
     <t>bef.6/12/24 : The Description was: Margin
 6/12/24 : Corrected to Spread</t>
+  </si>
+  <si>
+    <t>Fee type</t>
+  </si>
+  <si>
+    <t>Fee value</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Array of fees, the frequency (ex once, monlthlly, etc) of the fee</t>
+  </si>
+  <si>
+    <t>Array of fees, the fee's value</t>
+  </si>
+  <si>
+    <t>Fee ID</t>
+  </si>
+  <si>
+    <t>feeID</t>
+  </si>
+  <si>
+    <t>Array of fees, the free ID, Optional</t>
+  </si>
+  <si>
+    <t>Array of fees, the type of the fee (1=amount, 2=presentence)</t>
+  </si>
+  <si>
+    <t>Fee frequency Type</t>
+  </si>
+  <si>
+    <t>frequencyType</t>
+  </si>
+  <si>
+    <t>5/5/2025, Add</t>
   </si>
 </sst>
 </file>
@@ -723,7 +762,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -839,26 +878,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -876,104 +930,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1037,80 +993,43 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="10"/>
-        <color auto="1"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <sz val="10"/>
-        <color auto="1"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <sz val="10"/>
-        <color auto="1"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <sz val="10"/>
-        <color auto="1"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1296,6 +1215,141 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <sz val="10"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1315,36 +1369,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8E993AA3-9D86-4B54-B758-1BF06627D0F0}" name="Table3" displayName="Table3" ref="B2:I45" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="B2:I45" xr:uid="{8E993AA3-9D86-4B54-B758-1BF06627D0F0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8E993AA3-9D86-4B54-B758-1BF06627D0F0}" name="Table3" displayName="Table3" ref="B2:I49" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="B2:I49" xr:uid="{8E993AA3-9D86-4B54-B758-1BF06627D0F0}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{1D79BAF6-5220-4AB5-AE55-96590B0B07C7}" name="Seq." dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{5C08AD72-5937-43C3-8164-8A91093450D6}" name="Description" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{58FC589B-1CB4-441B-8A55-98FAE314A6F4}" name="Model" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{72055F84-5407-413A-BA6F-F5957E4899D7}" name="iApply" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{11310D34-1A8F-4B2D-9901-4922C5974E0C}" name="Data Type" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{F15A5728-5B5F-4CA5-BB5D-E9BD8EEC5CD3}" name="Entities" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{AAE56922-67E3-40DF-95E3-D2771A021571}" name="Release note" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{490C6BB8-E0C1-46E5-90D1-F4711249B549}" name="Notes" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{1D79BAF6-5220-4AB5-AE55-96590B0B07C7}" name="Seq." dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{5C08AD72-5937-43C3-8164-8A91093450D6}" name="Description" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{58FC589B-1CB4-441B-8A55-98FAE314A6F4}" name="Model" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{72055F84-5407-413A-BA6F-F5957E4899D7}" name="iApply" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{11310D34-1A8F-4B2D-9901-4922C5974E0C}" name="Data Type" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{F15A5728-5B5F-4CA5-BB5D-E9BD8EEC5CD3}" name="Entities" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{AAE56922-67E3-40DF-95E3-D2771A021571}" name="Release note" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{490C6BB8-E0C1-46E5-90D1-F4711249B549}" name="Notes" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{95AD6B62-2DA8-4727-83F6-7DF7747476EB}" name="Table4" displayName="Table4" ref="B2:H29" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{95AD6B62-2DA8-4727-83F6-7DF7747476EB}" name="Table4" displayName="Table4" ref="B2:H29" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="B2:H29" xr:uid="{95AD6B62-2DA8-4727-83F6-7DF7747476EB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:H29">
     <sortCondition ref="B2"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{413F1299-0565-47BB-B0AB-4F739703DB66}" name="Seq." dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{3BCF002E-AC39-4B19-9001-C00719682CFC}" name="Description" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{50BB9506-611A-4107-B63F-3441DF5CC4F7}" name="Model" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{60E06B8F-4894-477B-93F9-FEB6DF9BE600}" name="iApply" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{ADC0EA44-7DAF-43BB-B614-9EFA90B330CE}" name="Data Type" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{D68DF882-D84B-494D-B1BB-C1EE9D02B239}" name="Entities" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{D2E7E078-A90E-4EBC-9D82-DB71F096813C}" name="Notes" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{413F1299-0565-47BB-B0AB-4F739703DB66}" name="Seq." dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{3BCF002E-AC39-4B19-9001-C00719682CFC}" name="Description" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{50BB9506-611A-4107-B63F-3441DF5CC4F7}" name="Model" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{60E06B8F-4894-477B-93F9-FEB6DF9BE600}" name="iApply" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{ADC0EA44-7DAF-43BB-B614-9EFA90B330CE}" name="Data Type" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{D68DF882-D84B-494D-B1BB-C1EE9D02B239}" name="Entities" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{D2E7E078-A90E-4EBC-9D82-DB71F096813C}" name="Notes" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1755,10 +1809,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA02E32A-0574-49FB-89B5-FAB0617EBB92}">
-  <dimension ref="B1:I102"/>
+  <dimension ref="B1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1818,7 +1872,7 @@
       <c r="G3" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H3" s="44"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="35"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
@@ -1838,7 +1892,7 @@
       <c r="G4" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H4" s="44"/>
+      <c r="H4" s="42"/>
       <c r="I4" s="37" t="s">
         <v>54</v>
       </c>
@@ -1860,7 +1914,7 @@
       <c r="G5" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H5" s="44"/>
+      <c r="H5" s="42"/>
       <c r="I5" s="35"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
@@ -1880,7 +1934,7 @@
       <c r="G6" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H6" s="44"/>
+      <c r="H6" s="42"/>
       <c r="I6" s="35"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
@@ -1900,7 +1954,7 @@
       <c r="G7" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H7" s="44"/>
+      <c r="H7" s="42"/>
       <c r="I7" s="37"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
@@ -1920,7 +1974,7 @@
       <c r="G8" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H8" s="44"/>
+      <c r="H8" s="42"/>
       <c r="I8" s="37"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -1940,7 +1994,7 @@
       <c r="G9" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H9" s="44"/>
+      <c r="H9" s="42"/>
       <c r="I9" s="37"/>
     </row>
     <row r="10" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1960,7 +2014,7 @@
       <c r="G10" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H10" s="44"/>
+      <c r="H10" s="42"/>
       <c r="I10" s="37"/>
     </row>
     <row r="11" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1980,7 +2034,7 @@
       <c r="G11" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H11" s="44"/>
+      <c r="H11" s="42"/>
       <c r="I11" s="37"/>
     </row>
     <row r="12" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2000,7 +2054,7 @@
       <c r="G12" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H12" s="44"/>
+      <c r="H12" s="42"/>
       <c r="I12" s="37"/>
     </row>
     <row r="13" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2020,7 +2074,7 @@
       <c r="G13" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H13" s="44"/>
+      <c r="H13" s="42"/>
       <c r="I13" s="37"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
@@ -2040,7 +2094,7 @@
       <c r="G14" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H14" s="44"/>
+      <c r="H14" s="42"/>
       <c r="I14" s="37"/>
     </row>
     <row r="15" spans="2:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2060,7 +2114,7 @@
       <c r="G15" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H15" s="44"/>
+      <c r="H15" s="42"/>
       <c r="I15" s="37" t="s">
         <v>67</v>
       </c>
@@ -2082,7 +2136,7 @@
       <c r="G16" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="42" t="s">
         <v>164</v>
       </c>
       <c r="I16" s="37" t="s">
@@ -2106,7 +2160,7 @@
       <c r="G17" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H17" s="44"/>
+      <c r="H17" s="42"/>
       <c r="I17" s="37"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
@@ -2126,7 +2180,7 @@
       <c r="G18" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H18" s="44"/>
+      <c r="H18" s="42"/>
       <c r="I18" s="37"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
@@ -2146,7 +2200,7 @@
       <c r="G19" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H19" s="44"/>
+      <c r="H19" s="42"/>
       <c r="I19" s="37"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
@@ -2166,7 +2220,7 @@
       <c r="G20" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H20" s="44"/>
+      <c r="H20" s="42"/>
       <c r="I20" s="37"/>
     </row>
     <row r="21" spans="2:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2186,7 +2240,7 @@
       <c r="G21" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H21" s="44" t="s">
+      <c r="H21" s="42" t="s">
         <v>164</v>
       </c>
       <c r="I21" s="37" t="s">
@@ -2210,7 +2264,7 @@
       <c r="G22" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H22" s="44"/>
+      <c r="H22" s="42"/>
       <c r="I22" s="37"/>
     </row>
     <row r="23" spans="2:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2230,7 +2284,7 @@
       <c r="G23" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H23" s="44"/>
+      <c r="H23" s="42"/>
       <c r="I23" s="37" t="s">
         <v>77</v>
       </c>
@@ -2252,7 +2306,7 @@
       <c r="G24" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H24" s="44"/>
+      <c r="H24" s="42"/>
       <c r="I24" s="37"/>
     </row>
     <row r="25" spans="2:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2272,7 +2326,7 @@
       <c r="G25" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H25" s="44"/>
+      <c r="H25" s="42"/>
       <c r="I25" s="37" t="s">
         <v>77</v>
       </c>
@@ -2294,7 +2348,7 @@
       <c r="G26" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H26" s="44"/>
+      <c r="H26" s="42"/>
       <c r="I26" s="37"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
@@ -2314,7 +2368,7 @@
       <c r="G27" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H27" s="44"/>
+      <c r="H27" s="42"/>
       <c r="I27" s="37"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
@@ -2332,7 +2386,7 @@
       <c r="G28" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H28" s="44"/>
+      <c r="H28" s="42"/>
       <c r="I28" s="38">
         <v>1</v>
       </c>
@@ -2354,7 +2408,7 @@
       <c r="G29" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H29" s="44"/>
+      <c r="H29" s="42"/>
       <c r="I29" s="37" t="s">
         <v>84</v>
       </c>
@@ -2374,7 +2428,7 @@
       <c r="G30" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H30" s="44"/>
+      <c r="H30" s="42"/>
       <c r="I30" s="38">
         <v>0</v>
       </c>
@@ -2396,7 +2450,7 @@
       <c r="G31" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H31" s="44"/>
+      <c r="H31" s="42"/>
       <c r="I31" s="37"/>
     </row>
     <row r="32" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2416,7 +2470,7 @@
       <c r="G32" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H32" s="44"/>
+      <c r="H32" s="42"/>
       <c r="I32" s="37"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
@@ -2434,7 +2488,7 @@
       <c r="G33" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H33" s="44"/>
+      <c r="H33" s="42"/>
       <c r="I33" s="38">
         <v>0</v>
       </c>
@@ -2456,7 +2510,7 @@
       <c r="G34" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H34" s="44"/>
+      <c r="H34" s="42"/>
       <c r="I34" s="37"/>
     </row>
     <row r="35" spans="2:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2474,7 +2528,7 @@
       <c r="G35" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H35" s="44"/>
+      <c r="H35" s="42"/>
       <c r="I35" s="37" t="s">
         <v>91</v>
       </c>
@@ -2496,7 +2550,7 @@
       <c r="G36" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H36" s="44"/>
+      <c r="H36" s="42"/>
       <c r="I36" s="37"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
@@ -2516,7 +2570,7 @@
       <c r="G37" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H37" s="44"/>
+      <c r="H37" s="42"/>
       <c r="I37" s="37"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
@@ -2534,7 +2588,7 @@
       <c r="G38" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H38" s="44"/>
+      <c r="H38" s="42"/>
       <c r="I38" s="38">
         <v>0</v>
       </c>
@@ -2554,7 +2608,7 @@
       <c r="G39" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H39" s="44"/>
+      <c r="H39" s="42"/>
       <c r="I39" s="38">
         <v>0</v>
       </c>
@@ -2574,7 +2628,7 @@
       <c r="G40" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H40" s="44"/>
+      <c r="H40" s="42"/>
       <c r="I40" s="38">
         <v>1</v>
       </c>
@@ -2594,7 +2648,7 @@
       <c r="G41" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H41" s="44"/>
+      <c r="H41" s="42"/>
       <c r="I41" s="38">
         <v>2</v>
       </c>
@@ -2616,7 +2670,7 @@
       <c r="G42" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H42" s="44"/>
+      <c r="H42" s="42"/>
       <c r="I42" s="37" t="s">
         <v>99</v>
       </c>
@@ -2638,7 +2692,7 @@
       <c r="G43" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H43" s="44"/>
+      <c r="H43" s="42"/>
       <c r="I43" s="37"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
@@ -2658,68 +2712,116 @@
       <c r="G44" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="H44" s="44"/>
+      <c r="H44" s="42"/>
       <c r="I44" s="37"/>
     </row>
     <row r="45" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="39">
+      <c r="B45" s="25">
         <v>43</v>
       </c>
-      <c r="C45" s="42" t="s">
+      <c r="C45" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="D45" s="40"/>
-      <c r="E45" s="42" t="s">
+      <c r="D45" s="39"/>
+      <c r="E45" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="F45" s="43" t="s">
+      <c r="F45" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="G45" s="41"/>
-      <c r="H45" s="45" t="s">
+      <c r="G45" s="37"/>
+      <c r="H45" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="I45" s="40"/>
+      <c r="I45" s="39"/>
     </row>
     <row r="46" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="26"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="7"/>
-    </row>
-    <row r="47" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="26"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="7"/>
-    </row>
-    <row r="48" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="26"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="7"/>
+      <c r="B46" s="49">
+        <v>44</v>
+      </c>
+      <c r="C46" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="D46" s="45"/>
+      <c r="E46" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="F46" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="G46" s="47"/>
+      <c r="H46" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="I46" s="47" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="25">
+        <v>45</v>
+      </c>
+      <c r="C47" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="G47" s="47"/>
+      <c r="H47" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="I47" s="47" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="25">
+        <v>46</v>
+      </c>
+      <c r="C48" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="G48" s="47"/>
+      <c r="H48" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="I48" s="47" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="49" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="26"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="7"/>
+      <c r="B49" s="49">
+        <v>47</v>
+      </c>
+      <c r="C49" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="D49" s="45"/>
+      <c r="E49" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="F49" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="G49" s="47"/>
+      <c r="H49" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="I49" s="47" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="50" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B50" s="26"/>
@@ -2731,26 +2833,26 @@
       <c r="H50" s="8"/>
       <c r="I50" s="7"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="9"/>
+    <row r="51" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="26"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="7"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="5"/>
-    </row>
-    <row r="53" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="27"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="9"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -2759,18 +2861,18 @@
       <c r="H53" s="6"/>
       <c r="I53" s="5"/>
     </row>
-    <row r="54" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="28"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="9"/>
-    </row>
-    <row r="55" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="26"/>
+    <row r="54" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="27"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="28"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
@@ -2801,22 +2903,23 @@
     </row>
     <row r="58" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B58" s="26"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="12"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="5"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="9"/>
+    </row>
+    <row r="59" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="26"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="12"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C60" s="5"/>
@@ -2845,8 +2948,7 @@
       <c r="H62" s="6"/>
       <c r="I62" s="5"/>
     </row>
-    <row r="63" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="27"/>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -2857,13 +2959,13 @@
     </row>
     <row r="64" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B64" s="27"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="9"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="5"/>
     </row>
     <row r="65" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="27"/>
@@ -2875,14 +2977,15 @@
       <c r="H65" s="10"/>
       <c r="I65" s="9"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="5"/>
+    <row r="66" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="27"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="9"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C67" s="5"/>
@@ -2894,22 +2997,22 @@
       <c r="I67" s="5"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="9"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="5"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="5"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="9"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C70" s="5"/>
@@ -2918,7 +3021,7 @@
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
-      <c r="I70" s="14"/>
+      <c r="I70" s="5"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C71" s="5"/>
@@ -2938,15 +3041,14 @@
       <c r="H72" s="6"/>
       <c r="I72" s="14"/>
     </row>
-    <row r="73" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="27"/>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
-      <c r="I73" s="5"/>
+      <c r="I73" s="14"/>
     </row>
     <row r="74" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B74" s="27"/>
@@ -2968,7 +3070,8 @@
       <c r="H75" s="6"/>
       <c r="I75" s="5"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="27"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -3013,7 +3116,7 @@
       <c r="H80" s="6"/>
       <c r="I80" s="5"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -3022,7 +3125,7 @@
       <c r="H81" s="6"/>
       <c r="I81" s="5"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -3031,7 +3134,7 @@
       <c r="H82" s="6"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -3040,7 +3143,7 @@
       <c r="H83" s="6"/>
       <c r="I83" s="5"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -3049,7 +3152,7 @@
       <c r="H84" s="6"/>
       <c r="I84" s="5"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -3058,7 +3161,7 @@
       <c r="H85" s="6"/>
       <c r="I85" s="5"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -3067,7 +3170,7 @@
       <c r="H86" s="6"/>
       <c r="I86" s="5"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -3076,16 +3179,16 @@
       <c r="H87" s="6"/>
       <c r="I87" s="5"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
-      <c r="I88" s="7"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -3094,7 +3197,7 @@
       <c r="H89" s="6"/>
       <c r="I89" s="7"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -3103,16 +3206,16 @@
       <c r="H90" s="6"/>
       <c r="I90" s="7"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
-      <c r="I91" s="5"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I91" s="7"/>
+    </row>
+    <row r="92" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -3121,7 +3224,7 @@
       <c r="H92" s="6"/>
       <c r="I92" s="5"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -3130,7 +3233,7 @@
       <c r="H93" s="6"/>
       <c r="I93" s="5"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -3139,7 +3242,7 @@
       <c r="H94" s="6"/>
       <c r="I94" s="5"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -3148,25 +3251,24 @@
       <c r="H95" s="6"/>
       <c r="I95" s="5"/>
     </row>
-    <row r="96" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="27"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="9"/>
+    <row r="96" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="5"/>
     </row>
     <row r="97" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B97" s="27"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="5"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="9"/>
     </row>
     <row r="98" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B98" s="27"/>
@@ -3178,7 +3280,8 @@
       <c r="H98" s="6"/>
       <c r="I98" s="5"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="27"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -3196,8 +3299,7 @@
       <c r="H100" s="6"/>
       <c r="I100" s="5"/>
     </row>
-    <row r="101" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="29"/>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -3206,7 +3308,8 @@
       <c r="H101" s="6"/>
       <c r="I101" s="5"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="29"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -3215,20 +3318,29 @@
       <c r="H102" s="6"/>
       <c r="I102" s="5"/>
     </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="5"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3795,7 +3907,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
